--- a/medicine/Enfance/Hila_Colman/Hila_Colman.xlsx
+++ b/medicine/Enfance/Hila_Colman/Hila_Colman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hila Colman (née le 21 juillet 1909 à New York et décédée le 15 mai 2008 à Bridgewater, Connecticut) est une auteure et écrivaine américaine, notamment en littérature jeunesse[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hila Colman (née le 21 juillet 1909 à New York et décédée le 15 mai 2008 à Bridgewater, Connecticut) est une auteure et écrivaine américaine, notamment en littérature jeunesse,.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parents de Colman, Harry et Sarah Crayder, étaient des immigrants d'Europe de l'Est qui dirigeaient avec succès une petite entreprise de vêtements pour enfants. Elle a fréquenté la Calhoun School à New York puis le Radcliffe College. Son premier emploi a été à la National War Relief Agency, pour laquelle elle a créé des documents d'information. En 1947, Colman a publié son premier article (« Les maris devraient-ils être des baby-sitters ? ») dans le Saturday Evening Post.
 Hila Colman a publié de nombreux articles de journaux et de magazines et a écrit plus de 70 livres, pour la plupart des livres pour les jeunes. Elle était membre du PEN American Center.
-Colman s'est marié quatre fois et a eu deux fils[3]'[4].
+Colman s'est marié quatre fois et a eu deux fils'.
 </t>
         </is>
       </c>
